--- a/mixs-templates/MimarksS_plus_combinations/MimarksSFoodFarmEnvironment.xlsx
+++ b/mixs-templates/MimarksS_plus_combinations/MimarksSFoodFarmEnvironment.xlsx
@@ -1279,7 +1279,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
+  <dataValidations count="13">
     <dataValidation sqref="P2:P1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"aerobe,anaerobe,facultative,microaerophilic,microanaerobe,obligate aerobe,obligate anaerobe"</formula1>
     </dataValidation>
@@ -1297,6 +1297,9 @@
     </dataValidation>
     <dataValidation sqref="CL2:CL1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"chisel,cutting disc,disc plough,drill,mouldboard,ridge till,strip tillage,tined,zonal tillage"</formula1>
+    </dataValidation>
+    <dataValidation sqref="CO2:CO1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"autumn [NCIT:C94733],spring [NCIT:C94731],summer [NCIT:C94732],winter [NCIT:C94730]"</formula1>
     </dataValidation>
     <dataValidation sqref="CR2:CR1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"brackish,canal,collected rainwater,ditch,estuary,freshwater,lake,manmade,melt pond,municipal,natural,pond,reservior,river,saline,storage tank,stream,well"</formula1>
